--- a/STUDIO/org.openl.rules.project/test/resources/multi-module-support/test3/project3/Module3_1.xlsx
+++ b/STUDIO/org.openl.rules.project/test/resources/multi-module-support/test3/project3/Module3_1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="19035" windowHeight="10995"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Environment</t>
   </si>
@@ -56,13 +56,28 @@
   </si>
   <si>
     <t>return "World, " + baseHello(hour) + "!";</t>
+  </si>
+  <si>
+    <t>Properties moduleProperties</t>
+  </si>
+  <si>
+    <t>scope</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>lob</t>
+  </si>
+  <si>
+    <t>lob3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,11 +181,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Vehicle-Eligibility"/>
@@ -298,6 +318,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -332,6 +353,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -507,14 +529,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:E16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.85546875" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="28.140625" bestFit="1" customWidth="1" collapsed="1"/>
@@ -523,63 +545,63 @@
     <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="5"/>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="7"/>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="2:4">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="8"/>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="8"/>
     </row>
-    <row r="14" spans="2:4">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="2:4">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>1</v>
       </c>
@@ -587,12 +609,33 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="2:4">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
